--- a/reports/corpus_wicaksono-unigram_bigram-fold-3.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram-fold-3.xlsx
@@ -591,79 +591,79 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9737991266375546</v>
+        <v>0.9868995633187773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9851268591426072</v>
+        <v>0.9965004374453194</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="K2" t="n">
-        <v>0.951271186440678</v>
+        <v>0.9851694915254238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9834710743801653</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9914040114613181</v>
+        <v>0.9873106835857552</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4743326488706365</v>
+        <v>0.5605749486652978</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7844311377245509</v>
+        <v>0.8982035928143712</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9212121212121213</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.8610169491525423</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8913802363050484</v>
+        <v>0.9372986036519871</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7158106199040979</v>
+        <v>0.8732958033520707</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9290052222589753</v>
+        <v>0.9530646018639702</v>
       </c>
     </row>
     <row r="3">
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9737991266375546</v>
+        <v>0.9699570815450643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -697,64 +697,64 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.88</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9955654101995566</v>
+        <v>0.9957173447537473</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9948717948717949</v>
+        <v>0.9841897233201581</v>
       </c>
       <c r="M3" t="n">
-        <v>0.967479674796748</v>
+        <v>0.968</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7623544224110796</v>
+        <v>0.8611210282042128</v>
       </c>
       <c r="P3" t="n">
-        <v>0.88</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.934931506849315</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9424460431654677</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.95</v>
+        <v>0.9467455621301775</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9825870646766169</v>
+        <v>0.9825918762088974</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8913802363050484</v>
+        <v>0.9372986036519871</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8902280795524726</v>
+        <v>0.9142193289623151</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8913802363050484</v>
+        <v>0.9372986036519871</v>
       </c>
     </row>
     <row r="4">
@@ -773,79 +773,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9737991266375546</v>
+        <v>0.9783549783549783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8395061728395062</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9925077126487439</v>
+        <v>0.9982471516213848</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9784172661870503</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5517241379310346</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9729144095341279</v>
+        <v>0.9904153354632587</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8033126293995859</v>
+        <v>0.9205175600739371</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9754098360655739</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="N4" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8619217081850534</v>
+        <v>0.919908466819222</v>
       </c>
       <c r="P4" t="n">
-        <v>0.619718309859155</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6337448559670782</v>
+        <v>0.7008985879332477</v>
       </c>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8562091503267975</v>
+        <v>0.9036144578313253</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9353846153846154</v>
+        <v>0.9580838323353293</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.9467455621301774</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7963709677419354</v>
+        <v>0.9177958446251129</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8913802363050484</v>
+        <v>0.9372986036519871</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7770744213850979</v>
+        <v>0.8842851532472524</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8975160550187963</v>
+        <v>0.9409501593706794</v>
       </c>
     </row>
     <row r="5">
@@ -864,73 +864,73 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
         <v>124</v>
       </c>
       <c r="H5" t="n">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="I5" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="M5" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>3177</v>
+        <v>2801</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="n">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U5" t="n">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="X5" t="n">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="Y5" t="n">
-        <v>402</v>
+        <v>517</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8913802363050484</v>
+        <v>0.9372986036519871</v>
       </c>
       <c r="AB5" t="n">
         <v>7448</v>
